--- a/bin/excel/SpanishEnglish-VERBS17.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E1EC9-C7DF-4E85-AB35-64EA596708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE70AC7-2AFB-4566-907E-77BCC31C053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>blandir</t>
   </si>
   <si>
-    <t>proseguir</t>
-  </si>
-  <si>
     <t>asediar</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>desactivar, acabar(un conflicto)</t>
+  </si>
+  <si>
+    <t>costear</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -1090,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -1118,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
         <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
